--- a/realme/June/All Details/21.06.2021/realme Bank Statement June-2021-.xlsx
+++ b/realme/June/All Details/21.06.2021/realme Bank Statement June-2021-.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -307,9 +307,6 @@
     <t>26.05.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">8 + 8 Pro </t>
-  </si>
-  <si>
     <t>01.06.2021</t>
   </si>
   <si>
@@ -386,6 +383,15 @@
   </si>
   <si>
     <t>Dighi Telecom</t>
+  </si>
+  <si>
+    <t>Sabbir SS + Sarthok Boss</t>
+  </si>
+  <si>
+    <t>Daffodils</t>
+  </si>
+  <si>
+    <t>8Pro</t>
   </si>
 </sst>
 </file>
@@ -2395,6 +2401,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2422,12 +2446,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2438,18 +2456,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3198,7 +3204,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="18"/>
       <c r="B7" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="22">
         <v>600000</v>
@@ -3217,7 +3223,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="18"/>
       <c r="B8" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="22">
         <v>645000</v>
@@ -3236,7 +3242,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="18"/>
       <c r="B9" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="25">
         <v>250000</v>
@@ -3255,7 +3261,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
       <c r="B10" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="22">
         <v>0</v>
@@ -3274,7 +3280,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="18"/>
       <c r="B11" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="22">
         <v>1100000</v>
@@ -3293,7 +3299,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="18"/>
       <c r="B12" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="22">
         <v>420000</v>
@@ -3312,7 +3318,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="18"/>
       <c r="B13" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="22">
         <v>273000</v>
@@ -3331,7 +3337,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="18"/>
       <c r="B14" s="232" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="233">
         <v>390000</v>
@@ -3350,7 +3356,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="18"/>
       <c r="B15" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="22">
         <v>375000</v>
@@ -3369,7 +3375,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="18"/>
       <c r="B16" s="234" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="235">
         <v>0</v>
@@ -3388,7 +3394,7 @@
     <row r="17" spans="1:9">
       <c r="A17" s="18"/>
       <c r="B17" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="22">
         <v>630000</v>
@@ -3419,17 +3425,17 @@
         <v>981781</v>
       </c>
       <c r="F18" s="238" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="239" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="18"/>
       <c r="B19" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="22">
         <v>0</v>
@@ -3448,7 +3454,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="18"/>
       <c r="B20" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="22">
         <v>440000</v>
@@ -3467,7 +3473,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="18"/>
       <c r="B21" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="22">
         <v>152000</v>
@@ -3486,7 +3492,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="18"/>
       <c r="B22" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="22">
         <v>300000</v>
@@ -3505,7 +3511,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="18"/>
       <c r="B23" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="22">
         <v>0</v>
@@ -3524,7 +3530,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="18"/>
       <c r="B24" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="22">
         <v>810000</v>
@@ -3543,7 +3549,7 @@
     <row r="25" spans="1:9">
       <c r="A25" s="18"/>
       <c r="B25" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="22">
         <v>0</v>
@@ -4276,73 +4282,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
-      <c r="R1" s="242"/>
-      <c r="S1" s="242"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
     </row>
     <row r="2" spans="1:26" s="133" customFormat="1" ht="18">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="243"/>
-      <c r="P2" s="243"/>
-      <c r="Q2" s="243"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="243"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
     </row>
     <row r="3" spans="1:26" s="134" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="244" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="245"/>
-      <c r="S3" s="246"/>
+      <c r="A3" s="250" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="252"/>
       <c r="U3" s="58"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4351,58 +4357,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="136" customFormat="1">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="255" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="251" t="s">
+      <c r="C4" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="251" t="s">
+      <c r="E4" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="251" t="s">
+      <c r="F4" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="251" t="s">
+      <c r="G4" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="251" t="s">
+      <c r="H4" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="251" t="s">
+      <c r="I4" s="242" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="251" t="s">
+      <c r="K4" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="251" t="s">
+      <c r="L4" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="251" t="s">
+      <c r="M4" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="251" t="s">
+      <c r="N4" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="257" t="s">
+      <c r="O4" s="244" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="259" t="s">
+      <c r="P4" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="255" t="s">
+      <c r="Q4" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="253" t="s">
+      <c r="R4" s="257" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="135" t="s">
@@ -4415,24 +4421,24 @@
       <c r="Y4" s="138"/>
     </row>
     <row r="5" spans="1:26" s="136" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="248"/>
-      <c r="B5" s="250"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="260"/>
-      <c r="Q5" s="256"/>
-      <c r="R5" s="254"/>
+      <c r="A5" s="254"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="243"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="243"/>
+      <c r="N5" s="243"/>
+      <c r="O5" s="245"/>
+      <c r="P5" s="247"/>
+      <c r="Q5" s="260"/>
+      <c r="R5" s="258"/>
       <c r="S5" s="140" t="s">
         <v>46</v>
       </c>
@@ -4445,7 +4451,7 @@
     </row>
     <row r="6" spans="1:26" s="10" customFormat="1">
       <c r="A6" s="144" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="145">
         <v>500</v>
@@ -4485,7 +4491,7 @@
     </row>
     <row r="7" spans="1:26" s="10" customFormat="1">
       <c r="A7" s="144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="145"/>
       <c r="C7" s="145"/>
@@ -4523,7 +4529,7 @@
     </row>
     <row r="8" spans="1:26" s="10" customFormat="1">
       <c r="A8" s="144" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="152"/>
       <c r="C8" s="145"/>
@@ -4563,7 +4569,7 @@
     </row>
     <row r="9" spans="1:26" s="10" customFormat="1">
       <c r="A9" s="144" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="152">
         <v>500</v>
@@ -4607,7 +4613,7 @@
     </row>
     <row r="10" spans="1:26" s="10" customFormat="1">
       <c r="A10" s="144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="152"/>
       <c r="C10" s="145"/>
@@ -4645,7 +4651,7 @@
     </row>
     <row r="11" spans="1:26" s="10" customFormat="1">
       <c r="A11" s="144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="152"/>
       <c r="C11" s="145"/>
@@ -4687,7 +4693,7 @@
     </row>
     <row r="12" spans="1:26" s="10" customFormat="1">
       <c r="A12" s="144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="152">
         <v>600</v>
@@ -4727,7 +4733,7 @@
     </row>
     <row r="13" spans="1:26" s="10" customFormat="1">
       <c r="A13" s="144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="152">
         <v>150</v>
@@ -4767,7 +4773,7 @@
     </row>
     <row r="14" spans="1:26" s="10" customFormat="1">
       <c r="A14" s="144" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="152">
         <v>250</v>
@@ -4807,7 +4813,7 @@
     </row>
     <row r="15" spans="1:26" s="10" customFormat="1">
       <c r="A15" s="144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="152">
         <v>700</v>
@@ -4849,7 +4855,7 @@
     </row>
     <row r="16" spans="1:26" s="10" customFormat="1">
       <c r="A16" s="144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="152">
         <v>200</v>
@@ -4889,7 +4895,7 @@
     </row>
     <row r="17" spans="1:25" s="10" customFormat="1">
       <c r="A17" s="144" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="152"/>
       <c r="C17" s="145"/>
@@ -4925,7 +4931,7 @@
     </row>
     <row r="18" spans="1:25" s="10" customFormat="1">
       <c r="A18" s="144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="152">
         <v>620</v>
@@ -4965,7 +4971,7 @@
     </row>
     <row r="19" spans="1:25" s="10" customFormat="1">
       <c r="A19" s="144" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="152"/>
       <c r="C19" s="145"/>
@@ -5003,7 +5009,7 @@
     </row>
     <row r="20" spans="1:25" s="10" customFormat="1">
       <c r="A20" s="144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="152">
         <v>300</v>
@@ -5043,7 +5049,7 @@
     </row>
     <row r="21" spans="1:25" s="10" customFormat="1">
       <c r="A21" s="144" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="152">
         <v>500</v>
@@ -5083,7 +5089,7 @@
     </row>
     <row r="22" spans="1:25" s="10" customFormat="1">
       <c r="A22" s="144" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="152"/>
       <c r="C22" s="145"/>
@@ -5119,7 +5125,7 @@
     </row>
     <row r="23" spans="1:25" s="160" customFormat="1">
       <c r="A23" s="144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="152"/>
       <c r="C23" s="145">
@@ -7575,11 +7581,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7596,6 +7597,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7609,7 +7615,7 @@
   <dimension ref="A1:BI246"/>
   <sheetViews>
     <sheetView topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7696,7 +7702,7 @@
     </row>
     <row r="2" spans="1:61" ht="15">
       <c r="A2" s="268" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="268"/>
       <c r="C2" s="268"/>
@@ -9661,11 +9667,13 @@
     <row r="31" spans="1:61">
       <c r="A31" s="52"/>
       <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
+      <c r="C31" s="53">
+        <v>-205160</v>
+      </c>
       <c r="D31" s="53"/>
       <c r="E31" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-205160</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="70"/>
@@ -9729,13 +9737,11 @@
     <row r="32" spans="1:61">
       <c r="A32" s="52"/>
       <c r="B32" s="53"/>
-      <c r="C32" s="53">
-        <v>-207160</v>
-      </c>
+      <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="53">
         <f t="shared" si="0"/>
-        <v>-207160</v>
+        <v>0</v>
       </c>
       <c r="F32" s="53"/>
       <c r="G32" s="73"/>
@@ -9804,7 +9810,7 @@
       </c>
       <c r="C33" s="53">
         <f>SUM(C5:C32)</f>
-        <v>-207160</v>
+        <v>-205160</v>
       </c>
       <c r="D33" s="53">
         <f>SUM(D5:D32)</f>
@@ -9812,11 +9818,11 @@
       </c>
       <c r="E33" s="53">
         <f>SUM(E5:E32)</f>
-        <v>-207160</v>
+        <v>-205160</v>
       </c>
       <c r="F33" s="53">
         <f>B33-E33</f>
-        <v>207160</v>
+        <v>205160</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="198"/>
@@ -10144,7 +10150,7 @@
         <v>110000</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="57"/>
       <c r="F38" s="53"/>
@@ -10209,10 +10215,10 @@
         <v>57</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C39" s="53">
-        <v>47160</v>
+        <v>25890</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>61</v>
@@ -10277,14 +10283,14 @@
     </row>
     <row r="40" spans="1:61">
       <c r="A40" s="99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="53">
         <v>50000</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="57"/>
       <c r="F40" s="49"/>
@@ -10345,10 +10351,18 @@
       <c r="BI40" s="191"/>
     </row>
     <row r="41" spans="1:61">
-      <c r="A41" s="130"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="49"/>
+      <c r="A41" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="53">
+        <v>19270</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="E41" s="78"/>
       <c r="F41" s="49"/>
       <c r="G41" s="79"/>
@@ -15022,7 +15036,7 @@
       <c r="B113" s="263"/>
       <c r="C113" s="110">
         <f>SUM(C37:C112)</f>
-        <v>207160</v>
+        <v>205160</v>
       </c>
       <c r="D113" s="111"/>
       <c r="F113" s="103"/>
@@ -15157,7 +15171,7 @@
       <c r="B115" s="265"/>
       <c r="C115" s="115">
         <f>C113+L136</f>
-        <v>207160</v>
+        <v>205160</v>
       </c>
       <c r="D115" s="116"/>
       <c r="F115" s="98"/>
@@ -17734,7 +17748,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17777,7 +17791,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25">
       <c r="A3" s="280" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="281"/>
       <c r="C3" s="281"/>
@@ -17927,7 +17941,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="183">
-        <v>810144</v>
+        <v>812144</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="33"/>
@@ -17991,7 +18005,7 @@
     </row>
     <row r="9" spans="1:29" ht="21.75">
       <c r="A9" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="41">
         <v>0</v>
@@ -18001,7 +18015,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="42">
-        <v>207160</v>
+        <v>205160</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="33"/>
